--- a/natmiOut/OldD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Serping1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.0665038615161</v>
+        <v>11.921572</v>
       </c>
       <c r="H2">
-        <v>6.0665038615161</v>
+        <v>35.764716</v>
       </c>
       <c r="I2">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596158</v>
       </c>
       <c r="J2">
-        <v>0.003569819119473183</v>
+        <v>0.006971694289596159</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="N2">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="Q2">
-        <v>40.06312851218011</v>
+        <v>93.93680942389467</v>
       </c>
       <c r="R2">
-        <v>40.06312851218011</v>
+        <v>845.431284815052</v>
       </c>
       <c r="S2">
-        <v>0.003569819119473183</v>
+        <v>0.006955779859206643</v>
       </c>
       <c r="T2">
-        <v>0.003569819119473183</v>
+        <v>0.006955779859206645</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1513.20026742069</v>
+        <v>11.921572</v>
       </c>
       <c r="H3">
-        <v>1513.20026742069</v>
+        <v>35.764716</v>
       </c>
       <c r="I3">
-        <v>0.8904389364190262</v>
+        <v>0.006971694289596158</v>
       </c>
       <c r="J3">
-        <v>0.8904389364190262</v>
+        <v>0.006971694289596159</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>6.60398961687429</v>
+        <v>0.018028</v>
       </c>
       <c r="N3">
-        <v>6.60398961687429</v>
+        <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002282720631233623</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.002282720631233623</v>
       </c>
       <c r="Q3">
-        <v>9993.158854297635</v>
+        <v>0.214922100016</v>
       </c>
       <c r="R3">
-        <v>9993.158854297635</v>
+        <v>1.934298900144</v>
       </c>
       <c r="S3">
-        <v>0.8904389364190262</v>
+        <v>1.591443038951479E-05</v>
       </c>
       <c r="T3">
-        <v>0.8904389364190262</v>
+        <v>1.591443038951479E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>180.120132783501</v>
+        <v>1516.953124666667</v>
       </c>
       <c r="H4">
-        <v>180.120132783501</v>
+        <v>4550.859374</v>
       </c>
       <c r="I4">
-        <v>0.1059912444615006</v>
+        <v>0.8871089682487887</v>
       </c>
       <c r="J4">
-        <v>0.1059912444615006</v>
+        <v>0.8871089682487888</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="N4">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="Q4">
-        <v>1189.511486692259</v>
+        <v>11952.93175906619</v>
       </c>
       <c r="R4">
-        <v>1189.511486692259</v>
+        <v>107576.3858315957</v>
       </c>
       <c r="S4">
-        <v>0.1059912444615006</v>
+        <v>0.8850839463048148</v>
       </c>
       <c r="T4">
-        <v>0.1059912444615006</v>
+        <v>0.885083946304815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1516.953124666667</v>
+      </c>
+      <c r="H5">
+        <v>4550.859374</v>
+      </c>
+      <c r="I5">
+        <v>0.8871089682487887</v>
+      </c>
+      <c r="J5">
+        <v>0.8871089682487888</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.018028</v>
+      </c>
+      <c r="N5">
+        <v>0.054084</v>
+      </c>
+      <c r="O5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="P5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="Q5">
+        <v>27.34763093149066</v>
+      </c>
+      <c r="R5">
+        <v>246.128678383416</v>
+      </c>
+      <c r="S5">
+        <v>0.002025021943973883</v>
+      </c>
+      <c r="T5">
+        <v>0.002025021943973884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>181.1216836666667</v>
+      </c>
+      <c r="H6">
+        <v>543.365051</v>
+      </c>
+      <c r="I6">
+        <v>0.1059193374616151</v>
+      </c>
+      <c r="J6">
+        <v>0.1059193374616151</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.879565666666667</v>
+      </c>
+      <c r="N6">
+        <v>23.638697</v>
+      </c>
+      <c r="O6">
+        <v>0.9977172793687663</v>
+      </c>
+      <c r="P6">
+        <v>0.9977172793687664</v>
+      </c>
+      <c r="Q6">
+        <v>1427.160200108727</v>
+      </c>
+      <c r="R6">
+        <v>12844.44180097855</v>
+      </c>
+      <c r="S6">
+        <v>0.1056775532047449</v>
+      </c>
+      <c r="T6">
+        <v>0.1056775532047449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>181.1216836666667</v>
+      </c>
+      <c r="H7">
+        <v>543.365051</v>
+      </c>
+      <c r="I7">
+        <v>0.1059193374616151</v>
+      </c>
+      <c r="J7">
+        <v>0.1059193374616151</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.018028</v>
+      </c>
+      <c r="N7">
+        <v>0.054084</v>
+      </c>
+      <c r="O7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="P7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="Q7">
+        <v>3.265261713142666</v>
+      </c>
+      <c r="R7">
+        <v>29.387355418284</v>
+      </c>
+      <c r="S7">
+        <v>0.0002417842568702252</v>
+      </c>
+      <c r="T7">
+        <v>0.0002417842568702252</v>
       </c>
     </row>
   </sheetData>
